--- a/data/data_out/v2023/used_bk_numbers.xlsx
+++ b/data/data_out/v2023/used_bk_numbers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="452" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1017" uniqueCount="113">
   <si>
     <t>Maissilage</t>
   </si>

--- a/data/data_out/v2023/used_bk_numbers.xlsx
+++ b/data/data_out/v2023/used_bk_numbers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1017" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3051" uniqueCount="113">
   <si>
     <t>Maissilage</t>
   </si>

--- a/data/data_out/v2023/used_bk_numbers.xlsx
+++ b/data/data_out/v2023/used_bk_numbers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3051" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3729" uniqueCount="113">
   <si>
     <t>Maissilage</t>
   </si>

--- a/data/data_out/v2023/used_bk_numbers.xlsx
+++ b/data/data_out/v2023/used_bk_numbers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3729" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3955" uniqueCount="113">
   <si>
     <t>Maissilage</t>
   </si>

--- a/data/data_out/v2023/used_bk_numbers.xlsx
+++ b/data/data_out/v2023/used_bk_numbers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3955" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4520" uniqueCount="113">
   <si>
     <t>Maissilage</t>
   </si>
@@ -403,13 +403,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="true"/>
-    <col min="2" max="2" width="10.44140625" customWidth="true"/>
-    <col min="3" max="3" width="12.21875" customWidth="true"/>
-    <col min="4" max="4" width="16.5546875" customWidth="true"/>
-    <col min="5" max="5" width="11" customWidth="true"/>
-    <col min="6" max="6" width="13.44140625" customWidth="true"/>
-    <col min="7" max="7" width="10.44140625" customWidth="true"/>
+    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="2" max="2" width="10.85546875" customWidth="true"/>
+    <col min="3" max="3" width="13.5703125" customWidth="true"/>
+    <col min="4" max="4" width="18.5703125" customWidth="true"/>
+    <col min="5" max="5" width="12.5703125" customWidth="true"/>
+    <col min="6" max="6" width="15.28515625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
